--- a/Tpl/对照表.xlsx
+++ b/Tpl/对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>channel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,22 @@
   </si>
   <si>
     <t>职员维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -501,6 +517,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tpl/对照表.xlsx
+++ b/Tpl/对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>channel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>默认页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -453,7 +457,7 @@
     <col min="2" max="2" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -469,7 +473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -477,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -485,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -493,15 +497,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -509,7 +516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -517,7 +524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -525,7 +532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>18</v>
       </c>

--- a/Tpl/对照表.xlsx
+++ b/Tpl/对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>channel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>默认页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -457,7 +453,7 @@
     <col min="2" max="2" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -473,7 +469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -481,7 +477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -489,7 +485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -497,18 +493,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -516,7 +509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -524,7 +517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -532,7 +525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>18</v>
       </c>

--- a/Tpl/对照表.xlsx
+++ b/Tpl/对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>channel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,30 @@
   </si>
   <si>
     <t>默认页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintain_index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刊例维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue_index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刊例发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -533,6 +557,30 @@
         <v>19</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tpl/对照表.xlsx
+++ b/Tpl/对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>channel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,38 @@
   </si>
   <si>
     <t>刊例发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预警设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert_index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>station_index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -581,6 +613,38 @@
         <v>25</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tpl/对照表.xlsx
+++ b/Tpl/对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>channel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,50 @@
   </si>
   <si>
     <t>station_index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_analysis.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装量分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistics_index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_play.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_maintain.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告维护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -645,6 +689,51 @@
         <v>30</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tpl/对照表.xlsx
+++ b/Tpl/对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>channel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,14 @@
   </si>
   <si>
     <t>广告维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app-installed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app安装量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -734,6 +742,14 @@
         <v>44</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
